--- a/Study 3/Shocks/GCAM/NDC_EI - 2050.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2050.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.04491887414623393</v>
+        <v>0.04491887414623392</v>
       </c>
     </row>
     <row r="5">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.004095216922526177</v>
+        <v>0.004095216922526176</v>
       </c>
     </row>
     <row r="10">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.1155158235118449</v>
+        <v>0.1155158235118448</v>
       </c>
     </row>
     <row r="13">
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.02070397554705376</v>
+        <v>0.02070397554705375</v>
       </c>
     </row>
     <row r="17">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.03001319997693931</v>
+        <v>0.0300131999769393</v>
       </c>
     </row>
     <row r="18">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.09708148180997095</v>
+        <v>0.09708148180997093</v>
       </c>
     </row>
     <row r="21">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1316071405293821</v>
+        <v>0.131607140529382</v>
       </c>
     </row>
     <row r="25">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.04259714404309622</v>
+        <v>0.04259714404309621</v>
       </c>
     </row>
     <row r="26">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.06399465434176969</v>
+        <v>0.06399465434176968</v>
       </c>
     </row>
     <row r="29">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.007183547629076223</v>
+        <v>0.007183547629076222</v>
       </c>
     </row>
     <row r="34">
